--- a/senpai-kohai/checklist.xlsx
+++ b/senpai-kohai/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/senpai-kohai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F18268-1D46-6441-B48C-6E6FCB545B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E4531D-BDB5-6549-8EC2-BD659804DCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="600" windowWidth="25080" windowHeight="15800" xr2:uid="{A8FABE6E-26FF-DF47-9423-E66BD6630F9A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>year</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Senpai-Kohai RPG Enecadet</t>
+  </si>
+  <si>
+    <t>エネカデット 追加ルール&amp;学園ガイドブック</t>
+  </si>
+  <si>
+    <t>Enecadet Additional Rules &amp; School Guidebook</t>
+  </si>
+  <si>
+    <t>guidebook.jpg</t>
+  </si>
+  <si>
+    <t>supplement</t>
   </si>
 </sst>
 </file>
@@ -418,15 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B88DD14-63B5-9847-96EE-375567FCF824}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -469,6 +484,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
